--- a/Documents/Tablas y ejercicio.xlsx
+++ b/Documents/Tablas y ejercicio.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t xml:space="preserve">TABLAS DE DATOS Y PROB A CONSIDERAR PARA EL EJERCICIO</t>
   </si>
@@ -83,7 +83,7 @@
     <t xml:space="preserve">Probabilidad de escoger tal máquina o herramienta para su entrenamiento</t>
   </si>
   <si>
-    <t>Sí</t>
+    <t xml:space="preserve">Se ducha</t>
   </si>
   <si>
     <t>0.75</t>
@@ -113,7 +113,7 @@
     <t>Máquina</t>
   </si>
   <si>
-    <t>No</t>
+    <t xml:space="preserve">No se ducha</t>
   </si>
   <si>
     <t>0.25</t>
@@ -140,51 +140,54 @@
     <t>0.4</t>
   </si>
   <si>
+    <t xml:space="preserve">Press de banca</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>chocolate</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>Escaladora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 min</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Máquina de mariposa</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de tardar un tiempo en la ducha</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>vainilla</t>
+  </si>
+  <si>
+    <t>0.95</t>
+  </si>
+  <si>
+    <t>Pecho</t>
+  </si>
+  <si>
     <t xml:space="preserve">Prensa de Pecho</t>
   </si>
   <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>chocolate</t>
-  </si>
-  <si>
-    <t>0.65</t>
-  </si>
-  <si>
-    <t>Escaladora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 min</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Máquina de mariposa</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de tardar un tiempo en la ducha</t>
-  </si>
-  <si>
-    <t>Evolution</t>
-  </si>
-  <si>
-    <t>vainilla</t>
-  </si>
-  <si>
-    <t>0.95</t>
-  </si>
-  <si>
-    <t>Pecho</t>
-  </si>
-  <si>
     <t xml:space="preserve">25 min</t>
   </si>
   <si>
@@ -248,6 +251,9 @@
     <t>Anual</t>
   </si>
   <si>
+    <t xml:space="preserve">Probabilidad de escoger tal máquina o herramienta para su calentamiento</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dragon Pharma</t>
   </si>
   <si>
@@ -317,12 +323,18 @@
     <t>Pelotas</t>
   </si>
   <si>
+    <t xml:space="preserve">Usa banca</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gasto de spotify</t>
   </si>
   <si>
     <t>Tapetes</t>
   </si>
   <si>
+    <t xml:space="preserve">No usa</t>
+  </si>
+  <si>
     <t xml:space="preserve">Barra de proteína</t>
   </si>
   <si>
@@ -431,274 +443,313 @@
     <t>Duración</t>
   </si>
   <si>
+    <t xml:space="preserve">Probabilidad de que una persona tarde un tiempo calentando en el área de CARDIO</t>
+  </si>
+  <si>
+    <t>Visita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 día</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Semana </t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7 días</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de hacer cardio en la caminadora al terminar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de ejercicios</t>
+  </si>
+  <si>
+    <t>Mensualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 días</t>
+  </si>
+  <si>
+    <t>15min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplica para el área de pesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de maquinas que va a usar</t>
+  </si>
+  <si>
+    <t>Trimestre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 días</t>
+  </si>
+  <si>
+    <t>20min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo que tarda por máquina</t>
+  </si>
+  <si>
+    <t>Anualidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 año</t>
+  </si>
+  <si>
+    <t>Pesas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cantidad de tiempo calentando</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de que al final vaya al área de cardio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15 LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de escoger tal máquina en el entrenamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aplica tanto para un cliente externo como un usuario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20 LB</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para las que usan discos una tabla extra con la cantidad de discos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de que una persona compre una cantidad de productos durante el día</t>
+  </si>
+  <si>
     <t xml:space="preserve">Probabilidad de que una persona entrene en un área del gimnasio</t>
   </si>
   <si>
-    <t>Visita</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 día</t>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de que se llenen una cantidad de duchas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 LB</t>
   </si>
   <si>
     <t xml:space="preserve">Grupo muscular</t>
   </si>
   <si>
-    <t xml:space="preserve">Semana </t>
-  </si>
-  <si>
-    <t>0.35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de hacer cardio en la caminadora al terminar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidad de ejercicios</t>
-  </si>
-  <si>
-    <t>Mensualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplica para el área de pesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidad de maquinas que va a usar</t>
-  </si>
-  <si>
-    <t>Trimestre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 días</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo que tarda por máquina</t>
-  </si>
-  <si>
-    <t>Anualidad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 año</t>
-  </si>
-  <si>
-    <t>Pesas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cantidad de tiempo calentando</t>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de que se llenen los bancos</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de tardar un tiempo en el área de cardio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de que se llenen los casilleros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">40 LB</t>
+  </si>
+  <si>
+    <t>0.275</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prob de usar un par de pesas de un peso </t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo que tarda en la bicicleta si escoge spinning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50 LB</t>
+  </si>
+  <si>
+    <t>0.475</t>
+  </si>
+  <si>
+    <t xml:space="preserve">55 LB</t>
   </si>
   <si>
     <t>Spinning</t>
   </si>
   <si>
-    <t>0.025</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de que al final vaya al área de cardio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15 LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de escoger tal máquina en el entrenamiento</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aplica tanto para un cliente externo como un usuario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20 LB</t>
-  </si>
-  <si>
-    <t>0.075</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para las que usan discos una tabla extra con la cantidad de discos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de que una persona compre una cantidad de productos durante el día</t>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t xml:space="preserve">60 LB</t>
+  </si>
+  <si>
+    <t>0.625</t>
+  </si>
+  <si>
+    <t xml:space="preserve">65 LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 LB</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de que una persona haga una cantidad de ejercicios en su rutina</t>
   </si>
   <si>
-    <t>0.125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de que se llenen una cantidad de duchas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">30 LB</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de que se llenen los bancos</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de tardar un tiempo en el área de cardio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de que se llenen los casilleros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40 LB</t>
-  </si>
-  <si>
-    <t>0.275</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Prob de usar un par de pesas de un peso </t>
-  </si>
-  <si>
-    <t>0.375</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo que tarda en la bicicleta si escoge spinning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50 LB</t>
-  </si>
-  <si>
-    <t>0.475</t>
-  </si>
-  <si>
-    <t xml:space="preserve">55 LB</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t xml:space="preserve">60 LB</t>
-  </si>
-  <si>
-    <t>0.625</t>
-  </si>
-  <si>
-    <t xml:space="preserve">65 LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">70 LB</t>
+    <t>0.675</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Productos a la venta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">80 LB</t>
+  </si>
+  <si>
+    <t>0.0125</t>
+  </si>
+  <si>
+    <t>0.6875</t>
+  </si>
+  <si>
+    <t>Marca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio $</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio porc $</t>
+  </si>
+  <si>
+    <t>Contenido's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">90 LB</t>
+  </si>
+  <si>
+    <t>500g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100 LB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Para todas las áreas que usen discos</t>
+  </si>
+  <si>
+    <t>520g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barra plana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de escoger una cantidad de discos de un peso</t>
+  </si>
+  <si>
+    <t>3kg</t>
+  </si>
+  <si>
+    <t>Bicicletas</t>
+  </si>
+  <si>
+    <t>450g</t>
+  </si>
+  <si>
+    <t>Calentamiento</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de que use una cantidad de máquinas</t>
   </si>
   <si>
-    <t>0.675</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Productos a la venta </t>
-  </si>
-  <si>
-    <t xml:space="preserve">80 LB</t>
-  </si>
-  <si>
-    <t>0.0125</t>
-  </si>
-  <si>
-    <t>0.6875</t>
-  </si>
-  <si>
-    <t>Marca</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio $</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Precio porc $</t>
-  </si>
-  <si>
-    <t>Contenido's</t>
-  </si>
-  <si>
-    <t xml:space="preserve">90 LB</t>
-  </si>
-  <si>
-    <t>500g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100 LB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barra Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Para todas las áreas que usen discos</t>
-  </si>
-  <si>
-    <t>520g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barra plana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de escoger una cantidad de discos de un peso</t>
-  </si>
-  <si>
-    <t>3kg</t>
-  </si>
-  <si>
-    <t>Bicicletas</t>
-  </si>
-  <si>
-    <t>450g</t>
-  </si>
-  <si>
-    <t>Calentamiento</t>
+    <t xml:space="preserve">Probabilidad de ir al baño acabando un ejercicio</t>
+  </si>
+  <si>
+    <t>300g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Va o no va</t>
+  </si>
+  <si>
+    <t>210g</t>
+  </si>
+  <si>
+    <t>Casilleros</t>
+  </si>
+  <si>
+    <t>Va</t>
+  </si>
+  <si>
+    <t>Bancos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No va</t>
+  </si>
+  <si>
+    <t>1L</t>
+  </si>
+  <si>
+    <t>Duchas</t>
+  </si>
+  <si>
+    <t>1/5L</t>
+  </si>
+  <si>
+    <t>20g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de que tarde un tiempo en el baño</t>
+  </si>
+  <si>
+    <t>473ml</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de tardar determinado tiempo en la máquina</t>
   </si>
   <si>
-    <t xml:space="preserve">Probabilidad de ir al baño acabando un ejercicio</t>
-  </si>
-  <si>
-    <t>300g</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Va o no va</t>
-  </si>
-  <si>
-    <t>210g</t>
-  </si>
-  <si>
-    <t>Casilleros</t>
-  </si>
-  <si>
-    <t>Bancos</t>
-  </si>
-  <si>
-    <t>1L</t>
-  </si>
-  <si>
-    <t>Duchas</t>
-  </si>
-  <si>
-    <t>1/5L</t>
+    <t xml:space="preserve">5 min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de comprar un tipo de producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pobabilidad de que la persona se lesione al hacer algún ejercicio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se lesiona?</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de la máquina se dañe mientras es usada</t>
   </si>
   <si>
-    <t>20g</t>
+    <t xml:space="preserve">Se lesiona</t>
   </si>
   <si>
     <t xml:space="preserve">Cant Maq </t>
   </si>
   <si>
-    <t xml:space="preserve">Probabilidad de que tarde un tiempo en el baño</t>
-  </si>
-  <si>
-    <t>473ml</t>
+    <t xml:space="preserve">No se lesiona</t>
+  </si>
+  <si>
+    <t>0.85</t>
   </si>
   <si>
     <t xml:space="preserve">Se daña</t>
@@ -707,21 +758,6 @@
     <t xml:space="preserve">No se daña</t>
   </si>
   <si>
-    <t xml:space="preserve">5 min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Probabilidad de comprar un tipo de producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pobabilidad de que la persona se lesione al hacer algún ejercicio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Se lesiona?</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
     <t xml:space="preserve">Probabilidad de que un lesionado requiera hospitalización</t>
   </si>
   <si>
@@ -734,12 +770,18 @@
     <t xml:space="preserve">Si se escogió proteína</t>
   </si>
   <si>
+    <t xml:space="preserve">Requiere hozpitalización</t>
+  </si>
+  <si>
     <t xml:space="preserve">Aplica para Proteína, creatina y pre-entreno</t>
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de comprar de una marca y sabor </t>
   </si>
   <si>
+    <t xml:space="preserve">No requiere</t>
+  </si>
+  <si>
     <t xml:space="preserve">Bote comp</t>
   </si>
   <si>
@@ -782,9 +824,6 @@
     <t>Terminado</t>
   </si>
   <si>
-    <t xml:space="preserve">Caja día cero</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cantidad de personsa que asisten en el día</t>
   </si>
   <si>
@@ -798,6 +837,12 @@
   </si>
   <si>
     <t xml:space="preserve">Probabilidad de escoger tal maquina para calentamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARDIO Probabilidad de escoger tal máquina o herramienta para su calenamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Probabilidad de tardar un tiempo calentando en área de CARDIO</t>
   </si>
   <si>
     <t xml:space="preserve">AREA DE PECHO: Probabilidad de escoger tal máquina o herramienta para su entrenamiento</t>
@@ -864,7 +909,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -905,6 +950,12 @@
       <patternFill patternType="solid">
         <fgColor indexed="5"/>
         <bgColor indexed="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor rgb="FF00B050"/>
       </patternFill>
     </fill>
   </fills>
@@ -1078,7 +1129,7 @@
     <xf fontId="1" fillId="0" borderId="0" numFmtId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="40">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1129,7 +1180,15 @@
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
+    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
     <xf fontId="5" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1165,15 +1224,15 @@
     <xf fontId="0" fillId="6" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left"/>
-      <protection hidden="0" locked="1"/>
-    </xf>
     <xf fontId="0" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFill="1" applyProtection="0">
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="5" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
     <xf fontId="6" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1216,7 +1275,11 @@
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf fontId="0" fillId="8" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left"/>
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left"/>
       <protection hidden="0" locked="1"/>
     </xf>
@@ -1700,7 +1763,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="AP7" zoomScale="90" workbookViewId="0">
+    <sheetView showGridLines="1" showRowColHeaders="1" showZeros="1" topLeftCell="AL1" zoomScale="90" workbookViewId="0">
       <selection activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -1878,7 +1941,7 @@
       <c r="AK6" s="12"/>
       <c r="AL6" s="12"/>
       <c r="AM6" s="12"/>
-      <c r="AT6" s="11" t="s">
+      <c r="AT6" s="13" t="s">
         <v>22</v>
       </c>
       <c r="AU6" s="11" t="s">
@@ -1955,10 +2018,10 @@
       <c r="AA7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG7" s="13" t="s">
+      <c r="AG7" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AH7" s="13"/>
+      <c r="AH7" s="14"/>
       <c r="AI7" s="6" t="s">
         <v>12</v>
       </c>
@@ -1971,7 +2034,7 @@
       <c r="AL7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AT7" s="11" t="s">
+      <c r="AT7" s="13" t="s">
         <v>32</v>
       </c>
       <c r="AU7" s="11" t="s">
@@ -2051,10 +2114,10 @@
         <f t="shared" ref="AA8:AA9" si="3">Y8</f>
         <v>0.4</v>
       </c>
-      <c r="AG8" s="14" t="s">
+      <c r="AG8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AH8" s="14"/>
+      <c r="AH8" s="16"/>
       <c r="AI8" s="11" t="s">
         <v>42</v>
       </c>
@@ -2131,10 +2194,10 @@
         <f t="shared" si="3"/>
         <v>0.7</v>
       </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AG9" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AH9" s="14"/>
+      <c r="AH9" s="16"/>
       <c r="AI9" s="11" t="s">
         <v>50</v>
       </c>
@@ -2195,7 +2258,7 @@
       </c>
       <c r="P10" s="10"/>
       <c r="Q10" s="11" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -2206,13 +2269,13 @@
         <v>19</v>
       </c>
       <c r="W10" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="X10" s="11" t="s">
         <v>42</v>
       </c>
       <c r="Y10" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z10" s="11" t="str">
         <f t="shared" si="5"/>
@@ -2222,15 +2285,15 @@
         <f t="shared" ref="AA10:AA11" si="8">Y10</f>
         <v>0.9</v>
       </c>
-      <c r="AG10" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH10" s="14"/>
+      <c r="AG10" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" s="16"/>
       <c r="AI10" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AJ10" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK10" s="11" t="str">
         <f t="shared" si="6"/>
@@ -2256,7 +2319,7 @@
         <v>15</v>
       </c>
       <c r="BB10" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC10" s="11"/>
       <c r="BD10" s="11" t="s">
@@ -2302,7 +2365,7 @@
         <v>19</v>
       </c>
       <c r="W11" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X11" s="11" t="s">
         <v>28</v>
@@ -2318,10 +2381,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="AG11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="AH11" s="14"/>
+      <c r="AG11" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH11" s="16"/>
       <c r="AI11" s="11" t="s">
         <v>42</v>
       </c>
@@ -2337,7 +2400,7 @@
         <v>0.65</v>
       </c>
       <c r="AT11" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>42</v>
@@ -2353,11 +2416,11 @@
         <v>0.2</v>
       </c>
       <c r="BB11" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BC11" s="11"/>
       <c r="BD11" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BE11" s="11"/>
       <c r="BF11" s="11" t="s">
@@ -2371,7 +2434,7 @@
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -2381,15 +2444,15 @@
       <c r="U12" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH12" s="14"/>
+      <c r="AG12" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AH12" s="16"/>
       <c r="AI12" s="11" t="s">
         <v>37</v>
       </c>
       <c r="AJ12" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK12" s="11" t="str">
         <f t="shared" si="10"/>
@@ -2406,7 +2469,7 @@
         <v>40</v>
       </c>
       <c r="AV12" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AW12" s="11" t="str">
         <f t="shared" ref="AW12:AW24" si="12">CONCATENATE(AX11,"01")</f>
@@ -2417,15 +2480,15 @@
         <v>0.6</v>
       </c>
       <c r="BB12" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="BC12" s="11"/>
       <c r="BD12" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BE12" s="11"/>
       <c r="BF12" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BG12" s="11">
         <v>560</v>
@@ -2435,7 +2498,7 @@
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2446,17 +2509,17 @@
         <v>19</v>
       </c>
       <c r="W13" s="8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="X13" s="8"/>
       <c r="Y13" s="8"/>
       <c r="Z13" s="8"/>
       <c r="AA13" s="8"/>
       <c r="AB13" s="9"/>
-      <c r="AG13" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH13" s="14"/>
+      <c r="AG13" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH13" s="16"/>
       <c r="AI13" s="11" t="s">
         <v>42</v>
       </c>
@@ -2489,11 +2552,11 @@
         <v>1</v>
       </c>
       <c r="BB13" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="BC13" s="11"/>
       <c r="BD13" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BE13" s="11"/>
       <c r="BF13" s="11" t="s">
@@ -2505,19 +2568,19 @@
     </row>
     <row r="14" ht="14.25">
       <c r="B14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C14" s="7"/>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2528,7 +2591,7 @@
         <v>19</v>
       </c>
       <c r="W14" s="12" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="X14" s="12"/>
       <c r="Y14" s="12"/>
@@ -2537,15 +2600,15 @@
       <c r="AB14" s="12"/>
       <c r="AC14" s="12"/>
       <c r="BB14" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BC14" s="11"/>
       <c r="BD14" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BE14" s="11"/>
       <c r="BF14" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="BG14" s="11">
         <v>640</v>
@@ -2553,7 +2616,7 @@
     </row>
     <row r="15" ht="14.25">
       <c r="B15" s="10" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="11">
@@ -2566,7 +2629,7 @@
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2574,12 +2637,12 @@
         <v>20</v>
       </c>
       <c r="U15" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="W15" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="W15" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X15" s="13"/>
+      <c r="X15" s="14"/>
       <c r="Y15" s="6" t="s">
         <v>12</v>
       </c>
@@ -2593,15 +2656,15 @@
         <v>15</v>
       </c>
       <c r="BB15" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="BC15" s="11"/>
       <c r="BD15" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BE15" s="11"/>
       <c r="BF15" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="BG15" s="11">
         <v>500</v>
@@ -2609,7 +2672,7 @@
     </row>
     <row r="16" ht="14.25">
       <c r="B16" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11">
@@ -2622,7 +2685,7 @@
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2630,12 +2693,12 @@
         <v>16</v>
       </c>
       <c r="U16" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="X16" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="W16" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="X16" s="16"/>
       <c r="Y16" s="11" t="s">
         <v>47</v>
       </c>
@@ -2646,20 +2709,20 @@
         <v>0</v>
       </c>
       <c r="AB16" s="11" t="str">
-        <f t="shared" ref="AB16:AB43" si="14">Z16</f>
+        <f t="shared" ref="AB16:AB34" si="14">Z16</f>
         <v>0.3</v>
       </c>
       <c r="AG16" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="AH16" s="8"/>
       <c r="AI16" s="8"/>
       <c r="AJ16" s="8"/>
       <c r="AK16" s="8"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="16"/>
+      <c r="AL16" s="17"/>
+      <c r="AM16" s="18"/>
       <c r="AT16" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AU16" s="3"/>
       <c r="AV16" s="3"/>
@@ -2667,15 +2730,15 @@
       <c r="AX16" s="3"/>
       <c r="AY16" s="3"/>
       <c r="BB16" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="BC16" s="11"/>
       <c r="BD16" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="BE16" s="11"/>
       <c r="BF16" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BG16" s="11">
         <v>500</v>
@@ -2683,7 +2746,7 @@
     </row>
     <row r="17" ht="14.25">
       <c r="B17" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="11">
@@ -2696,7 +2759,7 @@
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2704,20 +2767,20 @@
         <v>14</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="W17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="X17" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="W17" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="X17" s="16"/>
       <c r="Y17" s="11" t="s">
         <v>47</v>
       </c>
       <c r="Z17" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA17" s="11" t="str">
-        <f t="shared" ref="AA17:AA43" si="15">CONCATENATE(AB16,"01")</f>
+        <f t="shared" ref="AA17:AA34" si="15">CONCATENATE(AB16,"01")</f>
         <v>0.301</v>
       </c>
       <c r="AB17" s="11" t="str">
@@ -2734,7 +2797,7 @@
       <c r="AL17" s="12"/>
       <c r="AM17" s="12"/>
       <c r="AT17" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AU17" s="6" t="s">
         <v>12</v>
@@ -2749,11 +2812,11 @@
         <v>15</v>
       </c>
       <c r="BB17" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BC17" s="11"/>
       <c r="BD17" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BE17" s="11"/>
       <c r="BF17" s="11" t="s">
@@ -2765,7 +2828,7 @@
     </row>
     <row r="18" ht="14.25">
       <c r="B18" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="11">
@@ -2778,7 +2841,7 @@
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -2786,17 +2849,17 @@
         <v>16</v>
       </c>
       <c r="U18" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W18" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="X18" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="W18" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="X18" s="16"/>
       <c r="Y18" s="11" t="s">
         <v>42</v>
       </c>
       <c r="Z18" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA18" s="11" t="str">
         <f t="shared" si="15"/>
@@ -2806,10 +2869,10 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-      <c r="AG18" s="13" t="s">
+      <c r="AG18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AH18" s="13"/>
+      <c r="AH18" s="14"/>
       <c r="AI18" s="6" t="s">
         <v>12</v>
       </c>
@@ -2823,14 +2886,14 @@
         <v>15</v>
       </c>
       <c r="AM18" s="9"/>
-      <c r="AT18" s="11" t="s">
-        <v>22</v>
+      <c r="AT18" s="13" t="s">
+        <v>102</v>
       </c>
       <c r="AU18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AV18" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AW18" s="11">
         <v>0</v>
@@ -2840,11 +2903,11 @@
         <v>0.6</v>
       </c>
       <c r="BB18" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BC18" s="11"/>
       <c r="BD18" s="11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="BE18" s="11"/>
       <c r="BF18" s="11" t="s">
@@ -2856,7 +2919,7 @@
     </row>
     <row r="19" ht="14.25">
       <c r="B19" s="10" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="11">
@@ -2869,7 +2932,7 @@
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2879,10 +2942,10 @@
       <c r="U19" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W19" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="X19" s="14"/>
+      <c r="W19" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="X19" s="16"/>
       <c r="Y19" s="11" t="s">
         <v>42</v>
       </c>
@@ -2897,10 +2960,10 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AG19" s="14" t="s">
+      <c r="AG19" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="AH19" s="14"/>
+      <c r="AH19" s="16"/>
       <c r="AI19" s="11" t="s">
         <v>42</v>
       </c>
@@ -2914,8 +2977,8 @@
         <f t="shared" si="9"/>
         <v>0.2</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>32</v>
+      <c r="AT19" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>40</v>
@@ -2932,11 +2995,11 @@
         <v>1</v>
       </c>
       <c r="BB19" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="BC19" s="11"/>
       <c r="BD19" s="11" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="BE19" s="11"/>
       <c r="BF19" s="11" t="s">
@@ -2948,7 +3011,7 @@
     </row>
     <row r="20" ht="14.25">
       <c r="O20" s="10" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="P20" s="10"/>
       <c r="Q20" s="11" t="s">
@@ -2962,10 +3025,10 @@
       <c r="U20" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG20" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH20" s="14"/>
+      <c r="AG20" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" s="16"/>
       <c r="AI20" s="11" t="s">
         <v>37</v>
       </c>
@@ -2981,15 +3044,15 @@
         <v>0.25</v>
       </c>
       <c r="BB20" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="BC20" s="11"/>
       <c r="BD20" s="11" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="BE20" s="11"/>
       <c r="BF20" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="BG20" s="11">
         <v>30</v>
@@ -2999,7 +3062,7 @@
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -3009,15 +3072,15 @@
       <c r="U21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG21" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH21" s="14"/>
+      <c r="AG21" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH21" s="16"/>
       <c r="AI21" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AJ21" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AK21" s="11" t="str">
         <f t="shared" si="10"/>
@@ -3028,7 +3091,7 @@
         <v>0.45</v>
       </c>
       <c r="AT21" s="3" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AU21" s="3"/>
       <c r="AV21" s="3"/>
@@ -3037,18 +3100,18 @@
       <c r="AY21" s="3"/>
     </row>
     <row r="22" ht="14.25">
-      <c r="B22" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="18">
+      <c r="B22" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="20">
         <v>2500</v>
       </c>
-      <c r="E22" s="19"/>
+      <c r="E22" s="21"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -3059,7 +3122,7 @@
         <v>19</v>
       </c>
       <c r="W22" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
@@ -3067,15 +3130,15 @@
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
-      <c r="AG22" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH22" s="14"/>
+      <c r="AG22" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH22" s="16"/>
       <c r="AI22" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AJ22" s="11" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="AK22" s="11" t="str">
         <f t="shared" si="10"/>
@@ -3100,21 +3163,21 @@
       <c r="AX22" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AY22" s="20"/>
+      <c r="AY22" s="22"/>
     </row>
     <row r="23" ht="14.25">
-      <c r="B23" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="18">
+      <c r="B23" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="20">
         <v>1380</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="21"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -3125,7 +3188,7 @@
         <v>19</v>
       </c>
       <c r="W23" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="X23" s="7"/>
       <c r="Y23" s="6" t="s">
@@ -3140,10 +3203,10 @@
       <c r="AB23" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG23" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AH23" s="14"/>
+      <c r="AG23" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH23" s="16"/>
       <c r="AI23" s="11" t="s">
         <v>42</v>
       </c>
@@ -3159,7 +3222,7 @@
         <v>0.75</v>
       </c>
       <c r="AT23" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AU23" s="11" t="s">
         <v>40</v>
@@ -3180,7 +3243,7 @@
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -3191,14 +3254,14 @@
         <v>19</v>
       </c>
       <c r="W24" s="11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="X24" s="11"/>
       <c r="Y24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="Z24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AA24" s="11">
         <v>0</v>
@@ -3207,10 +3270,10 @@
         <f t="shared" si="14"/>
         <v>0.6</v>
       </c>
-      <c r="AG24" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH24" s="14"/>
+      <c r="AG24" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="AH24" s="16"/>
       <c r="AI24" s="11" t="s">
         <v>42</v>
       </c>
@@ -3229,7 +3292,7 @@
         <v>39</v>
       </c>
       <c r="AU24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AV24" s="11">
         <v>1</v>
@@ -3248,7 +3311,7 @@
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -3259,7 +3322,7 @@
         <v>19</v>
       </c>
       <c r="W25" s="11" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="X25" s="11"/>
       <c r="Y25" s="11" t="s">
@@ -3276,10 +3339,10 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AG25" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH25" s="14"/>
+      <c r="AG25" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH25" s="16"/>
       <c r="AI25" s="11" t="s">
         <v>37</v>
       </c>
@@ -3299,7 +3362,7 @@
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -3307,14 +3370,14 @@
         <v>20</v>
       </c>
       <c r="U26" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" ht="14.25">
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -3322,14 +3385,14 @@
         <v>16</v>
       </c>
       <c r="U27" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" ht="14.25">
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -3337,17 +3400,17 @@
         <v>14</v>
       </c>
       <c r="U28" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W28" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="Z28" s="8"/>
       <c r="AA28" s="8"/>
       <c r="AG28" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AH28" s="8"/>
       <c r="AI28" s="8"/>
@@ -3359,7 +3422,7 @@
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
@@ -3367,10 +3430,10 @@
         <v>16</v>
       </c>
       <c r="U29" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="W29" s="2" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
@@ -3389,16 +3452,16 @@
       <c r="AM29" s="12"/>
     </row>
     <row r="30" ht="14.25">
-      <c r="B30" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="B30" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -3408,10 +3471,10 @@
       <c r="U30" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W30" s="13" t="s">
+      <c r="W30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="X30" s="13"/>
+      <c r="X30" s="14"/>
       <c r="Y30" s="6" t="s">
         <v>12</v>
       </c>
@@ -3424,10 +3487,10 @@
       <c r="AB30" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AG30" s="13" t="s">
+      <c r="AG30" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AH30" s="13"/>
+      <c r="AH30" s="14"/>
       <c r="AI30" s="6" t="s">
         <v>12</v>
       </c>
@@ -3443,7 +3506,7 @@
     </row>
     <row r="31" ht="14.25">
       <c r="B31" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="6" t="s">
@@ -3459,11 +3522,11 @@
         <v>15</v>
       </c>
       <c r="O31" s="10" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="P31" s="10"/>
       <c r="Q31" s="11" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
@@ -3473,10 +3536,10 @@
       <c r="U31" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W31" s="14" t="s">
+      <c r="W31" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="X31" s="14"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="11" t="s">
         <v>40</v>
       </c>
@@ -3490,10 +3553,10 @@
         <f t="shared" si="14"/>
         <v>0.4</v>
       </c>
-      <c r="AG31" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH31" s="14"/>
+      <c r="AG31" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH31" s="16"/>
       <c r="AI31" s="11" t="s">
         <v>42</v>
       </c>
@@ -3510,7 +3573,7 @@
     </row>
     <row r="32" ht="14.25">
       <c r="B32" s="10" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="11" t="s">
@@ -3529,7 +3592,7 @@
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
@@ -3539,10 +3602,10 @@
       <c r="U32" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W32" s="14" t="s">
+      <c r="W32" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="X32" s="14"/>
+      <c r="X32" s="16"/>
       <c r="Y32" s="11" t="s">
         <v>47</v>
       </c>
@@ -3557,10 +3620,10 @@
         <f t="shared" si="14"/>
         <v>0.7</v>
       </c>
-      <c r="AG32" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH32" s="14"/>
+      <c r="AG32" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="AH32" s="16"/>
       <c r="AI32" s="11" t="s">
         <v>42</v>
       </c>
@@ -3578,11 +3641,11 @@
     </row>
     <row r="33" ht="14.25">
       <c r="B33" s="10" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E33" s="11">
         <v>1</v>
@@ -3598,7 +3661,7 @@
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
@@ -3608,15 +3671,15 @@
       <c r="U33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W33" s="14" t="s">
+      <c r="W33" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="X33" s="14"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="Z33" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AA33" s="11" t="str">
         <f t="shared" si="15"/>
@@ -3626,15 +3689,15 @@
         <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
-      <c r="AG33" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH33" s="14"/>
+      <c r="AG33" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="AH33" s="16"/>
       <c r="AI33" s="11" t="s">
         <v>42</v>
       </c>
       <c r="AJ33" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK33" s="11" t="str">
         <f t="shared" si="10"/>
@@ -3649,7 +3712,7 @@
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
@@ -3659,10 +3722,10 @@
       <c r="U34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W34" s="14" t="s">
+      <c r="W34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="X34" s="14"/>
+      <c r="X34" s="16"/>
       <c r="Y34" s="11" t="s">
         <v>28</v>
       </c>
@@ -3677,10 +3740,10 @@
         <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="AG34" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH34" s="14"/>
+      <c r="AG34" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH34" s="16"/>
       <c r="AI34" s="11" t="s">
         <v>37</v>
       </c>
@@ -3695,13 +3758,13 @@
         <f t="shared" si="9"/>
         <v>0.75</v>
       </c>
-      <c r="BI34" s="22"/>
+      <c r="BI34" s="24"/>
     </row>
     <row r="35" ht="14.25">
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
@@ -3711,15 +3774,15 @@
       <c r="U35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG35" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH35" s="14"/>
+      <c r="AG35" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH35" s="16"/>
       <c r="AI35" s="11" t="s">
         <v>37</v>
       </c>
       <c r="AJ35" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AK35" s="11" t="str">
         <f t="shared" si="10"/>
@@ -3731,14 +3794,14 @@
       </c>
     </row>
     <row r="36" ht="14.25">
-      <c r="B36" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
+      <c r="B36" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
       <c r="I36" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
@@ -3746,7 +3809,7 @@
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -3756,12 +3819,12 @@
       <c r="U36" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG36" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH36" s="14"/>
+      <c r="AG36" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="AH36" s="16"/>
       <c r="AI36" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AJ36" s="11" t="s">
         <v>54</v>
@@ -3776,10 +3839,10 @@
       </c>
     </row>
     <row r="37" ht="14.25">
-      <c r="B37" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="C37" s="14"/>
       <c r="D37" s="6" t="s">
         <v>12</v>
       </c>
@@ -3792,20 +3855,20 @@
       <c r="G37" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="J37" s="13"/>
+      <c r="I37" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="J37" s="14"/>
       <c r="K37" s="6" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -3813,10 +3876,10 @@
         <v>20</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="W37" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
@@ -3824,12 +3887,12 @@
       <c r="AA37" s="2"/>
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
-      <c r="AG37" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH37" s="14"/>
+      <c r="AG37" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH37" s="16"/>
       <c r="AI37" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AJ37" s="11">
         <v>1</v>
@@ -3845,7 +3908,7 @@
     </row>
     <row r="38" ht="14.25">
       <c r="B38" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="11" t="s">
@@ -3862,19 +3925,19 @@
         <v>0.3</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="J38" s="10"/>
       <c r="K38" s="11">
         <v>25</v>
       </c>
       <c r="L38" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
@@ -3882,35 +3945,34 @@
         <v>16</v>
       </c>
       <c r="U38" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="W38" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="X38" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="W38" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X38" s="6" t="s">
+        <v>12</v>
+      </c>
       <c r="Y38" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z38" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA38" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AB38" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="39" ht="14.25">
       <c r="B39" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="11" t="s">
         <v>50</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F39" s="11" t="str">
         <f t="shared" ref="F39:F42" si="17">CONCATENATE(G38,"01")</f>
@@ -3921,19 +3983,19 @@
         <v>0.35</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="J39" s="10"/>
       <c r="K39" s="11">
         <v>120</v>
       </c>
       <c r="L39" s="11" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -3941,40 +4003,39 @@
         <v>14</v>
       </c>
       <c r="U39" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="W39" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="X39" s="23"/>
+        <v>94</v>
+      </c>
+      <c r="W39" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="Y39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z39" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA39" s="11">
+        <v>47</v>
+      </c>
+      <c r="Z39" s="11">
         <v>0</v>
       </c>
-      <c r="AB39" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0.2</v>
+      <c r="AA39" s="11" t="str">
+        <f>Y39</f>
+        <v>0.3</v>
       </c>
       <c r="AT39" s="3" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="AU39" s="3"/>
       <c r="AV39" s="3"/>
       <c r="AW39" s="3"/>
       <c r="AX39" s="3"/>
       <c r="AY39" s="3"/>
-      <c r="BA39" s="24" t="s">
-        <v>146</v>
+      <c r="BA39" s="25" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="40" ht="14.25">
       <c r="B40" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="11" t="s">
@@ -3992,19 +4053,19 @@
         <v>0.75</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="J40" s="10"/>
       <c r="K40" s="11">
         <v>320</v>
       </c>
       <c r="L40" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -4012,28 +4073,27 @@
         <v>16</v>
       </c>
       <c r="U40" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W40" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="X40" s="23"/>
+        <v>100</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="X40" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="Y40" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z40" s="11" t="s">
-        <v>40</v>
+        <v>48</v>
+      </c>
+      <c r="Z40" s="11" t="str">
+        <f>CONCATENATE(AA39,"01")</f>
+        <v>0.301</v>
       </c>
       <c r="AA40" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>0.201</v>
-      </c>
-      <c r="AB40" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0.4</v>
+        <f>Y40</f>
+        <v>0.7</v>
       </c>
       <c r="AG40" s="8" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="AH40" s="8"/>
       <c r="AI40" s="8"/>
@@ -4055,20 +4115,20 @@
       <c r="AX40" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="BA40" s="24" t="s">
-        <v>150</v>
+      <c r="BA40" s="25" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="41" ht="14.25">
       <c r="B41" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F41" s="11" t="str">
         <f t="shared" si="17"/>
@@ -4079,19 +4139,19 @@
         <v>0.9</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="J41" s="10"/>
       <c r="K41" s="11">
         <v>800</v>
       </c>
       <c r="L41" s="11" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
@@ -4101,23 +4161,22 @@
       <c r="U41" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W41" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="X41" s="23"/>
-      <c r="Y41" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z41" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="AA41" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>0.401</v>
-      </c>
-      <c r="AB41" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0.6</v>
+      <c r="W41" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y41" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="11" t="str">
+        <f>CONCATENATE(AA40,"01")</f>
+        <v>0.701</v>
+      </c>
+      <c r="AA41" s="11">
+        <f>Y41</f>
+        <v>1</v>
       </c>
       <c r="AG41" s="12" t="s">
         <v>21</v>
@@ -4133,13 +4192,13 @@
       <c r="AV41" s="11"/>
       <c r="AW41" s="11"/>
       <c r="AX41" s="11"/>
-      <c r="BA41" s="24" t="s">
-        <v>153</v>
+      <c r="BA41" s="25" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" ht="14.25">
       <c r="B42" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="11" t="s">
@@ -4157,21 +4216,21 @@
         <v>1</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="J42" s="10"/>
       <c r="K42" s="11">
         <v>2950</v>
       </c>
       <c r="L42" s="11" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="O42" s="10" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="P42" s="10"/>
       <c r="Q42" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
@@ -4179,33 +4238,16 @@
         <v>4</v>
       </c>
       <c r="U42" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="W42" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="X42" s="23"/>
-      <c r="Y42" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA42" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>0.601</v>
-      </c>
-      <c r="AB42" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>0.9</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="AA42"/>
       <c r="AG42" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AH42" s="25" t="s">
+      <c r="AH42" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="AI42" s="25"/>
+      <c r="AI42" s="26"/>
       <c r="AJ42" s="6" t="s">
         <v>12</v>
       </c>
@@ -4223,15 +4265,15 @@
       <c r="AV42" s="11"/>
       <c r="AW42" s="11"/>
       <c r="AX42" s="11"/>
-      <c r="BA42" s="24" t="s">
-        <v>158</v>
+      <c r="BA42" s="25" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="43" ht="14.25">
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
@@ -4239,38 +4281,21 @@
         <v>6</v>
       </c>
       <c r="U43" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="W43" s="23" t="s">
-        <v>159</v>
-      </c>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="11" t="str">
-        <f t="shared" si="15"/>
-        <v>0.901</v>
-      </c>
-      <c r="AB43" s="11">
-        <f t="shared" si="14"/>
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AA43"/>
       <c r="AG43" s="11" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="AH43" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI43" s="11"/>
       <c r="AJ43" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK43" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AL43" s="11">
         <v>0</v>
@@ -4284,15 +4309,15 @@
       <c r="AV43" s="11"/>
       <c r="AW43" s="11"/>
       <c r="AX43" s="11"/>
-      <c r="BA43" s="24" t="s">
-        <v>161</v>
+      <c r="BA43" s="25" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" ht="14.25">
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
@@ -4300,17 +4325,17 @@
         <v>6</v>
       </c>
       <c r="U44" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG44" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH44" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="AG44" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AH44" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="AI44" s="11"/>
       <c r="AJ44" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK44" s="11" t="s">
         <v>50</v>
@@ -4328,13 +4353,13 @@
       <c r="AV44" s="11"/>
       <c r="AW44" s="11"/>
       <c r="AX44" s="11"/>
-      <c r="BA44" s="24" t="s">
-        <v>163</v>
+      <c r="BA44" s="25" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="45" ht="14.25">
       <c r="B45" s="8" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
@@ -4342,7 +4367,7 @@
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
@@ -4350,20 +4375,20 @@
         <v>6</v>
       </c>
       <c r="U45" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AG45" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="AH45" s="11" t="s">
         <v>162</v>
-      </c>
-      <c r="AH45" s="11" t="s">
-        <v>156</v>
       </c>
       <c r="AI45" s="11"/>
       <c r="AJ45" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK45" s="11" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AL45" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4378,13 +4403,13 @@
       <c r="AV45" s="11"/>
       <c r="AW45" s="11"/>
       <c r="AX45" s="11"/>
-      <c r="BA45" s="24" t="s">
-        <v>167</v>
+      <c r="BA45" s="25" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="46" ht="14.25">
       <c r="B46" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -4394,7 +4419,7 @@
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -4402,10 +4427,10 @@
         <v>6</v>
       </c>
       <c r="U46" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="W46" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
@@ -4414,17 +4439,17 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AG46" s="11" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="AH46" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI46" s="11"/>
       <c r="AJ46" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK46" s="11" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AL46" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4434,8 +4459,8 @@
         <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
-      <c r="BA46" s="24" t="s">
-        <v>171</v>
+      <c r="BA46" s="25" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="47" ht="14.25">
@@ -4457,7 +4482,7 @@
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -4465,35 +4490,36 @@
         <v>8</v>
       </c>
       <c r="U47" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="W47" s="26" t="s">
-        <v>94</v>
-      </c>
-      <c r="X47" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="W47" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Y47" s="6" t="s">
+      <c r="Z47" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Z47" s="6" t="s">
+      <c r="AA47" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AA47" s="6" t="s">
+      <c r="AB47" s="6" t="s">
         <v>15</v>
       </c>
       <c r="AG47" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="AH47" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI47" s="11"/>
       <c r="AJ47" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK47" s="11" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="AL47" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4503,8 +4529,8 @@
         <f t="shared" si="18"/>
         <v>0.175</v>
       </c>
-      <c r="BA47" s="24" t="s">
-        <v>174</v>
+      <c r="BA47" s="25" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="48" ht="14.25">
@@ -4527,7 +4553,7 @@
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -4535,36 +4561,37 @@
         <v>8</v>
       </c>
       <c r="U48" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="W48" s="11">
-        <v>3</v>
-      </c>
-      <c r="X48" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="W48" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X48" s="27"/>
       <c r="Y48" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z48" s="11">
+        <v>42</v>
+      </c>
+      <c r="Z48" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA48" s="11">
         <v>0</v>
       </c>
-      <c r="AA48" s="11" t="str">
-        <f t="shared" ref="AA48:AA72" si="21">Y48</f>
-        <v>0.3</v>
+      <c r="AB48" s="11" t="str">
+        <f>Z48</f>
+        <v>0.2</v>
       </c>
       <c r="AG48" s="11" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AH48" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI48" s="11"/>
       <c r="AJ48" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK48" s="11" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AL48" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4575,15 +4602,15 @@
         <v>0.225</v>
       </c>
       <c r="AT48" s="3" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="AU48" s="3"/>
       <c r="AV48" s="3"/>
       <c r="AW48" s="3"/>
       <c r="AX48" s="3"/>
       <c r="AY48" s="3"/>
-      <c r="BA48" s="24" t="s">
-        <v>177</v>
+      <c r="BA48" s="25" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="49" ht="14.25">
@@ -4594,10 +4621,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E49" s="11" t="str">
-        <f t="shared" ref="E49:E100" si="22">CONCATENATE(F48,"01")</f>
+        <f t="shared" ref="E49:E100" si="21">CONCATENATE(F48,"01")</f>
         <v>0.301</v>
       </c>
       <c r="F49" s="11" t="str">
@@ -4607,7 +4634,7 @@
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -4615,37 +4642,38 @@
         <v>8</v>
       </c>
       <c r="U49" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="W49" s="11">
-        <v>4</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>47</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="W49" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="X49" s="27"/>
       <c r="Y49" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="Z49" s="11" t="str">
-        <f t="shared" ref="Z49:Z72" si="23">CONCATENATE(AA48,"01")</f>
-        <v>0.301</v>
+        <v>42</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="AA49" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.6</v>
+        <f>CONCATENATE(AB48,"01")</f>
+        <v>0.201</v>
+      </c>
+      <c r="AB49" s="11" t="str">
+        <f>Z49</f>
+        <v>0.4</v>
       </c>
       <c r="AG49" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AH49" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI49" s="11"/>
       <c r="AJ49" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK49" s="11" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AL49" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4670,9 +4698,9 @@
       <c r="AX49" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AY49" s="20"/>
-      <c r="BA49" s="24" t="s">
-        <v>180</v>
+      <c r="AY49" s="22"/>
+      <c r="BA49" s="25" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="50" ht="14.25">
@@ -4683,10 +4711,10 @@
         <v>47</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E50" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.501</v>
       </c>
       <c r="F50" s="11" t="str">
@@ -4696,7 +4724,7 @@
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
@@ -4704,37 +4732,38 @@
         <v>8</v>
       </c>
       <c r="U50" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="W50" s="11">
-        <v>5</v>
-      </c>
-      <c r="X50" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="W50" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="X50" s="27"/>
+      <c r="Y50" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z50" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.601</v>
+      <c r="Z50" s="11" t="s">
+        <v>69</v>
       </c>
       <c r="AA50" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.8</v>
+        <f>CONCATENATE(AB49,"01")</f>
+        <v>0.401</v>
+      </c>
+      <c r="AB50" s="11" t="str">
+        <f>Z50</f>
+        <v>0.6</v>
       </c>
       <c r="AG50" s="11" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AH50" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI50" s="11"/>
       <c r="AJ50" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AK50" s="11" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AL50" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4750,8 +4779,8 @@
       <c r="AW50" s="11"/>
       <c r="AX50" s="11"/>
       <c r="AY50" s="9"/>
-      <c r="BA50" s="24" t="s">
-        <v>182</v>
+      <c r="BA50" s="25" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" ht="14.25">
@@ -4762,10 +4791,10 @@
         <v>28</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E51" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.801</v>
       </c>
       <c r="F51" s="11" t="str">
@@ -4775,7 +4804,7 @@
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -4783,37 +4812,38 @@
         <v>4</v>
       </c>
       <c r="U51" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="W51" s="11">
-        <v>6</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y51" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z51" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.801</v>
-      </c>
-      <c r="AA51" s="11">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <v>189</v>
+      </c>
+      <c r="W51" s="27" t="s">
+        <v>162</v>
+      </c>
+      <c r="X51" s="27"/>
+      <c r="Y51" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA51" s="11" t="str">
+        <f>CONCATENATE(AB50,"01")</f>
+        <v>0.601</v>
+      </c>
+      <c r="AB51" s="11" t="str">
+        <f>Z51</f>
+        <v>0.9</v>
       </c>
       <c r="AG51" s="11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AH51" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI51" s="11"/>
       <c r="AJ51" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AK51" s="11" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="AL51" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4841,7 +4871,7 @@
         <v>54</v>
       </c>
       <c r="E52" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.901</v>
       </c>
       <c r="F52" s="11" t="str">
@@ -4851,7 +4881,7 @@
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
@@ -4859,20 +4889,38 @@
         <v>4</v>
       </c>
       <c r="U52" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
+      </c>
+      <c r="W52" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="X52" s="27"/>
+      <c r="Y52" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z52" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA52" s="11" t="str">
+        <f>CONCATENATE(AB51,"01")</f>
+        <v>0.901</v>
+      </c>
+      <c r="AB52" s="11">
+        <f>Z52</f>
+        <v>1</v>
       </c>
       <c r="AG52" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="AH52" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI52" s="11"/>
       <c r="AJ52" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AK52" s="11" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="AL52" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4900,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="E53" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.9501</v>
       </c>
       <c r="F53" s="11">
@@ -4910,7 +4958,7 @@
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
@@ -4918,20 +4966,20 @@
         <v>4</v>
       </c>
       <c r="U53" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AG53" s="11" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="AH53" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI53" s="11"/>
       <c r="AJ53" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK53" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="AL53" s="11" t="str">
         <f t="shared" si="19"/>
@@ -4952,7 +5000,7 @@
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -4960,17 +5008,17 @@
         <v>4</v>
       </c>
       <c r="U54" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AG54" s="11" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="AH54" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI54" s="11"/>
       <c r="AJ54" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK54" s="11" t="s">
         <v>44</v>
@@ -4994,7 +5042,7 @@
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
@@ -5002,28 +5050,29 @@
         <v>2</v>
       </c>
       <c r="U55" s="11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="W55" s="2" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
       <c r="AA55" s="2"/>
       <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
       <c r="AG55" s="11" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="AH55" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI55" s="11"/>
       <c r="AJ55" s="11" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="AK55" s="11" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="AL55" s="11" t="str">
         <f t="shared" si="19"/>
@@ -5041,7 +5090,7 @@
     </row>
     <row r="56" ht="14.25">
       <c r="B56" s="2" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -5049,7 +5098,7 @@
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -5057,10 +5106,10 @@
         <v>2</v>
       </c>
       <c r="U56" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="W56" s="6" t="s">
-        <v>94</v>
+        <v>201</v>
+      </c>
+      <c r="W56" s="28" t="s">
+        <v>96</v>
       </c>
       <c r="X56" s="6" t="s">
         <v>12</v>
@@ -5075,17 +5124,17 @@
         <v>15</v>
       </c>
       <c r="AG56" s="11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="AH56" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI56" s="11"/>
       <c r="AJ56" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK56" s="11" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="AL56" s="11" t="str">
         <f t="shared" si="19"/>
@@ -5098,23 +5147,23 @@
     </row>
     <row r="57" ht="14.25">
       <c r="B57" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C57" s="6"/>
       <c r="D57" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="E57" s="6" t="s">
         <v>7</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="G57" s="6" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="I57" s="6"/>
       <c r="J57" s="6" t="s">
@@ -5123,7 +5172,7 @@
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
@@ -5131,7 +5180,7 @@
         <v>2</v>
       </c>
       <c r="U57" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="W57" s="11">
         <v>3</v>
@@ -5146,18 +5195,18 @@
         <v>0</v>
       </c>
       <c r="AA57" s="11" t="str">
-        <f t="shared" si="21"/>
+        <f>Y57</f>
         <v>0.3</v>
       </c>
       <c r="AG57" s="11" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="AH57" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI57" s="11"/>
       <c r="AJ57" s="11" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="AK57" s="11" t="s">
         <v>48</v>
@@ -5189,7 +5238,7 @@
         <v>20</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I58" s="11"/>
       <c r="J58" s="11" t="s">
@@ -5198,7 +5247,7 @@
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -5206,30 +5255,30 @@
         <v>2</v>
       </c>
       <c r="U58" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="W58" s="11">
         <v>4</v>
       </c>
       <c r="X58" s="11" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="Y58" s="11" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="Z58" s="11" t="str">
-        <f t="shared" si="23"/>
+        <f>CONCATENATE(AA57,"01")</f>
         <v>0.301</v>
       </c>
       <c r="AA58" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.7</v>
+        <f>Y58</f>
+        <v>0.6</v>
       </c>
       <c r="AG58" s="11" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="AH58" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI58" s="11"/>
       <c r="AJ58" s="11" t="s">
@@ -5248,8 +5297,8 @@
       </c>
     </row>
     <row r="59" ht="14.25">
-      <c r="B59" s="23"/>
-      <c r="C59" s="23"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="27"/>
       <c r="D59" s="11" t="s">
         <v>34</v>
       </c>
@@ -5263,7 +5312,7 @@
         <v>20</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I59" s="11"/>
       <c r="J59" s="11" t="s">
@@ -5272,7 +5321,7 @@
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -5286,31 +5335,31 @@
         <v>5</v>
       </c>
       <c r="X59" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y59" s="11">
-        <v>1</v>
+        <v>42</v>
+      </c>
+      <c r="Y59" s="11" t="s">
+        <v>68</v>
       </c>
       <c r="Z59" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.701</v>
-      </c>
-      <c r="AA59" s="11">
-        <f t="shared" si="21"/>
-        <v>1</v>
+        <f>CONCATENATE(AA58,"01")</f>
+        <v>0.601</v>
+      </c>
+      <c r="AA59" s="11" t="str">
+        <f>Y59</f>
+        <v>0.8</v>
       </c>
       <c r="AG59" s="11" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="AH59" s="11" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="AI59" s="11"/>
       <c r="AJ59" s="11" t="s">
         <v>50</v>
       </c>
       <c r="AK59" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AL59" s="11" t="str">
         <f t="shared" si="19"/>
@@ -5321,7 +5370,7 @@
         <v>0.8</v>
       </c>
       <c r="AT59" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="AU59" s="8"/>
       <c r="AV59" s="8"/>
@@ -5329,8 +5378,8 @@
       <c r="AX59" s="8"/>
     </row>
     <row r="60" ht="14.25">
-      <c r="B60" s="23"/>
-      <c r="C60" s="23"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="27"/>
       <c r="D60" s="11" t="s">
         <v>52</v>
       </c>
@@ -5344,7 +5393,7 @@
         <v>25</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="I60" s="11"/>
       <c r="J60" s="11" t="s">
@@ -5353,7 +5402,7 @@
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -5363,18 +5412,35 @@
       <c r="U60" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="W60" s="11">
+        <v>6</v>
+      </c>
+      <c r="X60" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y60" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z60" s="11" t="str">
+        <f>CONCATENATE(AA59,"01")</f>
+        <v>0.801</v>
+      </c>
+      <c r="AA60" s="11">
+        <f>Y60</f>
+        <v>1</v>
+      </c>
       <c r="AG60" s="11" t="s">
         <v>19</v>
       </c>
       <c r="AH60" s="11" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="AI60" s="11"/>
       <c r="AJ60" s="11" t="s">
         <v>28</v>
       </c>
       <c r="AK60" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="AL60" s="11" t="str">
         <f t="shared" si="19"/>
@@ -5385,7 +5451,7 @@
         <v>0.9</v>
       </c>
       <c r="AT60" s="12" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="AU60" s="12"/>
       <c r="AV60" s="12"/>
@@ -5395,10 +5461,10 @@
       <c r="AZ60" s="12"/>
     </row>
     <row r="61" ht="14.25">
-      <c r="B61" s="23"/>
-      <c r="C61" s="23"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E61" s="11">
         <v>1</v>
@@ -5410,18 +5476,18 @@
         <v>50</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="I61" s="11"/>
       <c r="J61" s="11" t="s">
         <v>43</v>
       </c>
       <c r="O61" s="10" t="s">
-        <v>159</v>
+        <v>192</v>
       </c>
       <c r="P61" s="10"/>
       <c r="Q61" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
@@ -5435,7 +5501,7 @@
         <v>19</v>
       </c>
       <c r="AH61" s="11" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="AI61" s="11"/>
       <c r="AJ61" s="11" t="s">
@@ -5455,10 +5521,10 @@
       <c r="AT61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="AU61" s="13" t="s">
+      <c r="AU61" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AV61" s="13"/>
+      <c r="AV61" s="14"/>
       <c r="AW61" s="6" t="s">
         <v>12</v>
       </c>
@@ -5474,11 +5540,11 @@
     </row>
     <row r="62" ht="14.25">
       <c r="B62" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C62" s="10"/>
       <c r="D62" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E62" s="11">
         <v>2</v>
@@ -5490,18 +5556,18 @@
         <v>15</v>
       </c>
       <c r="H62" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I62" s="11"/>
       <c r="J62" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O62" s="10" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P62" s="10"/>
       <c r="Q62" s="11" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
@@ -5511,31 +5577,23 @@
       <c r="U62" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W62" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="X62" s="2"/>
-      <c r="Y62" s="2"/>
-      <c r="Z62" s="2"/>
-      <c r="AA62" s="2"/>
-      <c r="AB62" s="2"/>
       <c r="AT62" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="AU62" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV62" s="14"/>
+        <v>83</v>
+      </c>
+      <c r="AU62" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV62" s="16"/>
       <c r="AW62" s="11"/>
       <c r="AX62" s="11"/>
       <c r="AY62" s="11"/>
       <c r="AZ62" s="11"/>
     </row>
     <row r="63" ht="14.25">
-      <c r="B63" s="23"/>
-      <c r="C63" s="23"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="27"/>
       <c r="D63" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E63" s="11">
         <v>1</v>
@@ -5547,16 +5605,16 @@
         <v>25</v>
       </c>
       <c r="H63" s="11" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="I63" s="11"/>
       <c r="J63" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -5566,38 +5624,23 @@
       <c r="U63" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W63" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="X63" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y63" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z63" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA63" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="AT63" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="AU63" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV63" s="14"/>
+        <v>87</v>
+      </c>
+      <c r="AU63" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV63" s="16"/>
       <c r="AW63" s="11"/>
       <c r="AX63" s="11"/>
       <c r="AY63" s="11"/>
       <c r="AZ63" s="11"/>
     </row>
     <row r="64" ht="14.25">
-      <c r="B64" s="23"/>
-      <c r="C64" s="23"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="27"/>
       <c r="D64" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E64" s="11">
         <v>2</v>
@@ -5609,7 +5652,7 @@
         <v>25</v>
       </c>
       <c r="H64" s="11" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="I64" s="11"/>
       <c r="J64" s="11" t="s">
@@ -5618,7 +5661,7 @@
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
@@ -5628,36 +5671,28 @@
       <c r="U64" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W64" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="X64" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Y64" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="Z64" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA64" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.3</v>
-      </c>
+      <c r="W64" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="X64" s="2"/>
+      <c r="Y64" s="2"/>
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
       <c r="AG64" s="12" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="AH64" s="12"/>
       <c r="AI64" s="12"/>
       <c r="AJ64" s="12"/>
       <c r="AK64" s="12"/>
       <c r="AT64" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="AU64" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV64" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="AU64" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV64" s="16"/>
       <c r="AW64" s="11"/>
       <c r="AX64" s="11"/>
       <c r="AY64" s="11"/>
@@ -5665,11 +5700,11 @@
     </row>
     <row r="65" ht="14.25">
       <c r="B65" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C65" s="10"/>
       <c r="D65" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E65" s="11">
         <v>1</v>
@@ -5681,16 +5716,16 @@
         <v>25</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I65" s="11"/>
       <c r="J65" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
@@ -5700,27 +5735,25 @@
       <c r="U65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W65" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="X65" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y65" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="Z65" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.301</v>
-      </c>
-      <c r="AA65" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.8</v>
-      </c>
-      <c r="AG65" s="27" t="s">
-        <v>216</v>
-      </c>
-      <c r="AH65" s="28"/>
+      <c r="W65" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="X65" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y65" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z65" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA65" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG65" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AH65" s="30"/>
       <c r="AI65" s="6" t="s">
         <v>12</v>
       </c>
@@ -5734,22 +5767,22 @@
         <v>15</v>
       </c>
       <c r="AT65" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AU65" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV65" s="14"/>
+        <v>100</v>
+      </c>
+      <c r="AU65" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV65" s="16"/>
       <c r="AW65" s="11"/>
       <c r="AX65" s="11"/>
       <c r="AY65" s="11"/>
       <c r="AZ65" s="11"/>
     </row>
     <row r="66" ht="14.25">
-      <c r="B66" s="23"/>
-      <c r="C66" s="23"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="27"/>
       <c r="D66" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E66" s="11">
         <v>2</v>
@@ -5761,18 +5794,18 @@
         <v>20</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I66" s="11"/>
       <c r="J66" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O66" s="10" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="P66" s="10"/>
       <c r="Q66" s="11" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
@@ -5782,27 +5815,26 @@
       <c r="U66" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W66" s="11" t="s">
-        <v>56</v>
+      <c r="W66" s="11">
+        <v>3</v>
       </c>
       <c r="X66" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y66" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z66" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.801</v>
-      </c>
-      <c r="AA66" s="11">
-        <f t="shared" si="21"/>
-        <v>1</v>
-      </c>
-      <c r="AG66" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="AH66" s="29"/>
+        <v>47</v>
+      </c>
+      <c r="Y66" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z66" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="11" t="str">
+        <f>Y66</f>
+        <v>0.3</v>
+      </c>
+      <c r="AG66" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="AH66" s="31"/>
       <c r="AI66" s="11" t="s">
         <v>47</v>
       </c>
@@ -5813,15 +5845,15 @@
         <v>0</v>
       </c>
       <c r="AL66" s="11" t="str">
-        <f t="shared" ref="AL66:AL67" si="24">AJ66</f>
+        <f t="shared" ref="AL66:AL67" si="22">AJ66</f>
         <v>0.3</v>
       </c>
     </row>
     <row r="67" ht="14.25">
-      <c r="B67" s="23"/>
-      <c r="C67" s="23"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="27"/>
       <c r="D67" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E67" s="11">
         <v>1</v>
@@ -5833,16 +5865,16 @@
         <v>20</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="I67" s="11"/>
       <c r="J67" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
@@ -5852,10 +5884,27 @@
       <c r="U67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="AG67" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="AH67" s="29"/>
+      <c r="W67" s="11">
+        <v>4</v>
+      </c>
+      <c r="X67" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y67" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Z67" s="11" t="str">
+        <f>CONCATENATE(AA66,"01")</f>
+        <v>0.301</v>
+      </c>
+      <c r="AA67" s="11" t="str">
+        <f>Y67</f>
+        <v>0.7</v>
+      </c>
+      <c r="AG67" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="AH67" s="31"/>
       <c r="AI67" s="11" t="s">
         <v>48</v>
       </c>
@@ -5867,17 +5916,17 @@
         <v>0.301</v>
       </c>
       <c r="AL67" s="11">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
     </row>
     <row r="68" ht="14.25">
       <c r="B68" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C68" s="10"/>
       <c r="D68" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E68" s="11">
         <v>15</v>
@@ -5889,18 +5938,18 @@
         <v>19</v>
       </c>
       <c r="H68" s="11" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="I68" s="11"/>
       <c r="J68" s="11" t="s">
         <v>19</v>
       </c>
       <c r="O68" s="10" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="P68" s="10"/>
       <c r="Q68" s="11" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -5910,12 +5959,29 @@
       <c r="U68" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="W68" s="11">
+        <v>5</v>
+      </c>
+      <c r="X68" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y68" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z68" s="11" t="str">
+        <f>CONCATENATE(AA67,"01")</f>
+        <v>0.701</v>
+      </c>
+      <c r="AA68" s="11">
+        <f>Y68</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="69" ht="14.25">
-      <c r="B69" s="23"/>
-      <c r="C69" s="23"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E69" s="11">
         <v>10</v>
@@ -5927,28 +5993,20 @@
         <v>19</v>
       </c>
       <c r="H69" s="11" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="I69" s="11"/>
       <c r="J69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="W69" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="X69" s="2"/>
-      <c r="Y69" s="2"/>
-      <c r="Z69" s="2"/>
-      <c r="AA69" s="2"/>
-      <c r="AB69" s="2"/>
     </row>
     <row r="70" ht="14.25">
       <c r="B70" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C70" s="10"/>
       <c r="D70" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E70" s="11">
         <v>20</v>
@@ -5960,29 +6018,14 @@
         <v>19</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="I70" s="11"/>
       <c r="J70" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="W70" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="X70" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="Y70" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="Z70" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA70" s="6" t="s">
-        <v>15</v>
-      </c>
       <c r="AG70" s="3" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="AH70" s="3"/>
       <c r="AI70" s="3"/>
@@ -5992,11 +6035,11 @@
     </row>
     <row r="71" ht="14.25">
       <c r="B71" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C71" s="10"/>
       <c r="D71" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E71" s="11">
         <v>25</v>
@@ -6008,28 +6051,20 @@
         <v>19</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="I71" s="11"/>
       <c r="J71" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="W71" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="X71" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y71" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Z71" s="11">
-        <v>0</v>
-      </c>
-      <c r="AA71" s="11" t="str">
-        <f t="shared" si="21"/>
-        <v>0.5</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="W71" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="X71" s="2"/>
+      <c r="Y71" s="2"/>
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
       <c r="AG71" s="6" t="s">
         <v>30</v>
       </c>
@@ -6048,57 +6083,71 @@
       <c r="AL71" s="9"/>
     </row>
     <row r="72" ht="14.25">
-      <c r="H72" s="30"/>
-      <c r="I72" s="30"/>
-      <c r="W72" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="X72" s="11" t="s">
-        <v>135</v>
-      </c>
-      <c r="Y72" s="11">
-        <v>1</v>
-      </c>
-      <c r="Z72" s="11" t="str">
-        <f t="shared" si="23"/>
-        <v>0.501</v>
-      </c>
-      <c r="AA72" s="11">
-        <f t="shared" si="21"/>
-        <v>1</v>
+      <c r="H72" s="32"/>
+      <c r="I72" s="32"/>
+      <c r="W72" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y72" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA72" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="AG72" s="11" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="AH72" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AI72" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AJ72" s="11">
         <v>0</v>
       </c>
       <c r="AK72" s="11" t="str">
-        <f t="shared" ref="AK72:AK85" si="25">AI72</f>
+        <f t="shared" ref="AK72:AK85" si="23">AI72</f>
         <v>0.5</v>
       </c>
       <c r="AL72" s="9"/>
     </row>
     <row r="73" ht="14.25">
       <c r="B73" s="2" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
-      <c r="H73" s="30"/>
-      <c r="I73" s="30"/>
+      <c r="H73" s="32"/>
+      <c r="I73" s="32"/>
+      <c r="W73" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="X73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y73" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z73" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="11" t="str">
+        <f>Y73</f>
+        <v>0.3</v>
+      </c>
       <c r="AG73" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AH73" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="AI73" s="11">
         <v>1</v>
@@ -6108,14 +6157,14 @@
         <v>0.501</v>
       </c>
       <c r="AK73" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="AL73" s="9"/>
     </row>
     <row r="74" ht="14.25">
       <c r="B74" s="6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C74" s="6"/>
       <c r="D74" s="6" t="s">
@@ -6130,6 +6179,23 @@
       <c r="G74" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="W74" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="X74" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y74" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z74" s="11" t="str">
+        <f>CONCATENATE(AA73,"01")</f>
+        <v>0.301</v>
+      </c>
+      <c r="AA74" s="11" t="str">
+        <f>Y74</f>
+        <v>0.8</v>
+      </c>
     </row>
     <row r="75" ht="14.25">
       <c r="B75" s="10" t="s">
@@ -6149,10 +6215,27 @@
         <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
+      <c r="W75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X75" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y75" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="11" t="str">
+        <f>CONCATENATE(AA74,"01")</f>
+        <v>0.801</v>
+      </c>
+      <c r="AA75" s="11">
+        <f>Y75</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="76" ht="14.25">
       <c r="B76" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C76" s="10"/>
       <c r="D76" s="11" t="s">
@@ -6162,7 +6245,7 @@
         <v>47</v>
       </c>
       <c r="F76" s="11" t="str">
-        <f t="shared" ref="F76:F80" si="26">CONCATENATE(G75,"01")</f>
+        <f t="shared" ref="F76:F80" si="24">CONCATENATE(G75,"01")</f>
         <v>0.201</v>
       </c>
       <c r="G76" s="11" t="str">
@@ -6170,7 +6253,7 @@
         <v>0.3</v>
       </c>
       <c r="AG76" s="12" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AH76" s="12"/>
       <c r="AI76" s="12"/>
@@ -6181,17 +6264,17 @@
     </row>
     <row r="77" ht="14.25">
       <c r="B77" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C77" s="10"/>
       <c r="D77" s="11" t="s">
         <v>42</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F77" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.301</v>
       </c>
       <c r="G77" s="11" t="str">
@@ -6199,7 +6282,7 @@
         <v>0.5</v>
       </c>
       <c r="AG77" s="6" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AH77" s="6" t="s">
         <v>12</v>
@@ -6216,7 +6299,7 @@
     </row>
     <row r="78" ht="14.25">
       <c r="B78" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C78" s="10"/>
       <c r="D78" s="11" t="s">
@@ -6226,15 +6309,23 @@
         <v>48</v>
       </c>
       <c r="F78" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.501</v>
       </c>
       <c r="G78" s="11" t="str">
         <f t="shared" si="16"/>
         <v>0.7</v>
       </c>
-      <c r="AG78" s="11" t="s">
-        <v>22</v>
+      <c r="W78" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="X78" s="2"/>
+      <c r="Y78" s="2"/>
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+      <c r="AG78" s="13" t="s">
+        <v>241</v>
       </c>
       <c r="AH78" s="11" t="s">
         <v>37</v>
@@ -6246,34 +6337,49 @@
         <v>0</v>
       </c>
       <c r="AK78" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="79" ht="14.25">
       <c r="B79" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C79" s="10"/>
       <c r="D79" s="11" t="s">
         <v>28</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F79" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.701</v>
       </c>
       <c r="G79" s="11" t="str">
         <f t="shared" si="16"/>
         <v>0.8</v>
       </c>
-      <c r="AG79" s="11" t="s">
-        <v>32</v>
+      <c r="W79" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="X79" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y79" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA79" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AG79" s="13" t="s">
+        <v>243</v>
       </c>
       <c r="AH79" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AI79" s="11">
         <v>1</v>
@@ -6283,13 +6389,13 @@
         <v>0.1501</v>
       </c>
       <c r="AK79" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
     <row r="80" ht="14.25">
       <c r="B80" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C80" s="10"/>
       <c r="D80" s="11" t="s">
@@ -6299,18 +6405,52 @@
         <v>1</v>
       </c>
       <c r="F80" s="11" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="24"/>
         <v>0.801</v>
       </c>
       <c r="G80" s="11">
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="81" ht="14.25"/>
+      <c r="W80" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="X80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y80" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z80" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA80" s="11" t="str">
+        <f>Y80</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="81" ht="14.25">
+      <c r="W81" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="X81" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y81" s="11">
+        <v>1</v>
+      </c>
+      <c r="Z81" s="11" t="str">
+        <f>CONCATENATE(AA80,"01")</f>
+        <v>0.501</v>
+      </c>
+      <c r="AA81" s="11">
+        <f>Y81</f>
+        <v>1</v>
+      </c>
+    </row>
     <row r="82" ht="14.25">
       <c r="AG82" s="12" t="s">
-        <v>235</v>
+        <v>247</v>
       </c>
       <c r="AH82" s="12"/>
       <c r="AI82" s="12"/>
@@ -6319,7 +6459,7 @@
     </row>
     <row r="83" ht="14.25">
       <c r="AG83" s="6" t="s">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="AH83" s="6" t="s">
         <v>12</v>
@@ -6336,19 +6476,19 @@
     </row>
     <row r="84" ht="14.25">
       <c r="B84" s="2" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="2"/>
       <c r="H84" s="8" t="s">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
-      <c r="AG84" s="11" t="s">
-        <v>22</v>
+      <c r="AG84" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="AH84" s="11" t="s">
         <v>37</v>
@@ -6360,28 +6500,28 @@
         <v>0</v>
       </c>
       <c r="AK84" s="11" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>0.15</v>
       </c>
     </row>
     <row r="85" ht="14.25">
       <c r="B85" s="8" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="H85" s="2" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="AG85" s="11" t="s">
-        <v>32</v>
+      <c r="AG85" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="AH85" s="11" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AI85" s="11">
         <v>1</v>
@@ -6391,7 +6531,7 @@
         <v>0.1501</v>
       </c>
       <c r="AK85" s="11">
-        <f t="shared" si="25"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
     </row>
@@ -6412,7 +6552,7 @@
         <v>15</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I86" s="6" t="s">
         <v>26</v>
@@ -6435,7 +6575,7 @@
         <v>1</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D87" s="11" t="str">
         <f>C87</f>
@@ -6445,7 +6585,7 @@
         <v>0</v>
       </c>
       <c r="F87" s="11" t="str">
-        <f t="shared" ref="F87:F99" si="27">D87</f>
+        <f t="shared" ref="F87:F99" si="25">D87</f>
         <v>0.6</v>
       </c>
       <c r="H87" s="11" t="s">
@@ -6464,7 +6604,7 @@
         <v>0</v>
       </c>
       <c r="M87" s="11" t="str">
-        <f t="shared" ref="M87:M97" si="28">K87</f>
+        <f t="shared" ref="M87:M97" si="26">K87</f>
         <v>0.2</v>
       </c>
     </row>
@@ -6476,14 +6616,14 @@
         <v>42</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E88" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.601</v>
       </c>
       <c r="F88" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.8</v>
       </c>
       <c r="H88" s="11" t="s">
@@ -6496,14 +6636,14 @@
         <v>47</v>
       </c>
       <c r="K88" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="L88" s="11" t="str">
-        <f t="shared" ref="L88:L97" si="29">CONCATENATE(M87,"01")</f>
+        <f t="shared" ref="L88:L97" si="27">CONCATENATE(M87,"01")</f>
         <v>0.201</v>
       </c>
       <c r="M88" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6518,11 +6658,11 @@
         <v>54</v>
       </c>
       <c r="E89" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.801</v>
       </c>
       <c r="F89" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.95</v>
       </c>
       <c r="H89" s="11" t="s">
@@ -6535,20 +6675,20 @@
         <v>47</v>
       </c>
       <c r="K89" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L89" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.501</v>
       </c>
       <c r="M89" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.8</v>
       </c>
     </row>
     <row r="90" ht="14.25">
       <c r="B90" s="11" t="s">
-        <v>241</v>
+        <v>255</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>50</v>
@@ -6557,15 +6697,15 @@
         <v>1</v>
       </c>
       <c r="E90" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.9501</v>
       </c>
       <c r="F90" s="11">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="H90" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>43</v>
@@ -6577,24 +6717,24 @@
         <v>1</v>
       </c>
       <c r="L90" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.801</v>
       </c>
       <c r="M90" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
     <row r="91" ht="14.25"/>
     <row r="92" ht="14.25">
       <c r="B92" s="2" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
       <c r="H92" s="8" t="s">
-        <v>243</v>
+        <v>257</v>
       </c>
       <c r="I92" s="8"/>
       <c r="J92" s="8"/>
@@ -6603,7 +6743,7 @@
     </row>
     <row r="93" ht="14.25">
       <c r="B93" s="6" t="s">
-        <v>244</v>
+        <v>258</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>12</v>
@@ -6617,33 +6757,33 @@
       <c r="F93" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H93" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
-      <c r="K93" s="31"/>
-      <c r="L93" s="16"/>
-      <c r="M93" s="16"/>
+      <c r="H93" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="I93" s="33"/>
+      <c r="J93" s="33"/>
+      <c r="K93" s="33"/>
+      <c r="L93" s="18"/>
+      <c r="M93" s="18"/>
     </row>
     <row r="94" ht="14.25">
       <c r="B94" s="11" t="s">
-        <v>245</v>
+        <v>259</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E94" s="11">
         <v>0</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H94" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I94" s="6" t="s">
         <v>26</v>
@@ -6663,7 +6803,7 @@
     </row>
     <row r="95" ht="14.25">
       <c r="B95" s="11" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="C95" s="11" t="s">
         <v>40</v>
@@ -6672,14 +6812,14 @@
         <v>1</v>
       </c>
       <c r="E95" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.601</v>
       </c>
       <c r="F95" s="11">
         <v>1</v>
       </c>
       <c r="H95" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="I95" s="11" t="s">
         <v>36</v>
@@ -6694,16 +6834,16 @@
         <v>0</v>
       </c>
       <c r="M95" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.4</v>
       </c>
     </row>
     <row r="96" ht="14.25">
       <c r="H96" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I96" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J96" s="11" t="s">
         <v>47</v>
@@ -6712,24 +6852,24 @@
         <v>48</v>
       </c>
       <c r="L96" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.401</v>
       </c>
       <c r="M96" s="11" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>0.7</v>
       </c>
     </row>
     <row r="97" ht="14.25">
       <c r="B97" s="2" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
       <c r="H97" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I97" s="11" t="s">
         <v>36</v>
@@ -6741,11 +6881,11 @@
         <v>1</v>
       </c>
       <c r="L97" s="11" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="27"/>
         <v>0.701</v>
       </c>
       <c r="M97" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="26"/>
         <v>1</v>
       </c>
     </row>
@@ -6780,11 +6920,11 @@
         <v>0</v>
       </c>
       <c r="F99" s="11" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="25"/>
         <v>0.4</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
@@ -6802,21 +6942,21 @@
         <v>48</v>
       </c>
       <c r="E100" s="11" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>0.401</v>
       </c>
       <c r="F100" s="11" t="str">
-        <f t="shared" ref="F100:F107" si="30">D100</f>
+        <f t="shared" ref="F100:F107" si="28">D100</f>
         <v>0.7</v>
       </c>
-      <c r="H100" s="31" t="s">
-        <v>240</v>
-      </c>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
-      <c r="K100" s="31"/>
-      <c r="L100" s="16"/>
-      <c r="M100" s="16"/>
+      <c r="H100" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
+      <c r="K100" s="33"/>
+      <c r="L100" s="18"/>
+      <c r="M100" s="18"/>
     </row>
     <row r="101" ht="14.25">
       <c r="B101" s="11">
@@ -6833,11 +6973,11 @@
         <v>0.701</v>
       </c>
       <c r="F101" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
       <c r="H101" s="6" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="I101" s="6" t="s">
         <v>26</v>
@@ -6857,10 +6997,10 @@
     </row>
     <row r="102" ht="14.25">
       <c r="H102" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J102" s="11" t="s">
         <v>40</v>
@@ -6872,36 +7012,36 @@
         <v>0</v>
       </c>
       <c r="M102" s="11" t="str">
-        <f t="shared" ref="M102:M104" si="31">K102</f>
+        <f t="shared" ref="M102:M104" si="29">K102</f>
         <v>0.4</v>
       </c>
     </row>
     <row r="103" ht="14.25">
       <c r="B103" s="2" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
       <c r="H103" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J103" s="11" t="s">
         <v>40</v>
       </c>
       <c r="K103" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L103" s="11" t="str">
-        <f t="shared" ref="L103:L104" si="32">CONCATENATE(M102,"01")</f>
+        <f t="shared" ref="L103:L104" si="30">CONCATENATE(M102,"01")</f>
         <v>0.401</v>
       </c>
       <c r="M103" s="11" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>0.8</v>
       </c>
     </row>
@@ -6922,10 +7062,10 @@
         <v>15</v>
       </c>
       <c r="H104" s="11" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J104" s="11" t="s">
         <v>42</v>
@@ -6934,11 +7074,11 @@
         <v>1</v>
       </c>
       <c r="L104" s="11" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="30"/>
         <v>0.801</v>
       </c>
       <c r="M104" s="11">
-        <f t="shared" si="31"/>
+        <f t="shared" si="29"/>
         <v>1</v>
       </c>
     </row>
@@ -6947,16 +7087,16 @@
         <v>1</v>
       </c>
       <c r="C105" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E105" s="11">
         <v>0</v>
       </c>
       <c r="F105" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0.5</v>
       </c>
     </row>
@@ -6971,11 +7111,11 @@
         <v>23</v>
       </c>
       <c r="E106" s="11" t="str">
-        <f t="shared" ref="E106:E107" si="33">CONCATENATE(F105,"01")</f>
+        <f t="shared" ref="E106:E107" si="31">CONCATENATE(F105,"01")</f>
         <v>0.501</v>
       </c>
       <c r="F106" s="11" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>0.75</v>
       </c>
     </row>
@@ -6990,11 +7130,11 @@
         <v>1</v>
       </c>
       <c r="E107" s="11" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" si="31"/>
         <v>0.7501</v>
       </c>
       <c r="F107" s="11">
-        <f t="shared" si="30"/>
+        <f t="shared" si="28"/>
         <v>1</v>
       </c>
     </row>
@@ -7038,7 +7178,7 @@
     <row r="149" ht="14.25"/>
     <row r="150" ht="14.25"/>
   </sheetData>
-  <mergeCells count="347">
+  <mergeCells count="348">
     <mergeCell ref="B2:F2"/>
     <mergeCell ref="O4:R4"/>
     <mergeCell ref="AT4:AY4"/>
@@ -7216,34 +7356,28 @@
     <mergeCell ref="I38:J38"/>
     <mergeCell ref="O38:P38"/>
     <mergeCell ref="Q38:S38"/>
-    <mergeCell ref="W38:X38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="I39:J39"/>
     <mergeCell ref="O39:P39"/>
     <mergeCell ref="Q39:S39"/>
-    <mergeCell ref="W39:X39"/>
     <mergeCell ref="AT39:AY39"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="I40:J40"/>
     <mergeCell ref="O40:P40"/>
     <mergeCell ref="Q40:S40"/>
-    <mergeCell ref="W40:X40"/>
     <mergeCell ref="AG40:AK40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="I41:J41"/>
     <mergeCell ref="O41:P41"/>
     <mergeCell ref="Q41:S41"/>
-    <mergeCell ref="W41:X41"/>
     <mergeCell ref="AG41:AM41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="I42:J42"/>
     <mergeCell ref="O42:P42"/>
     <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="W42:X42"/>
     <mergeCell ref="AH42:AI42"/>
     <mergeCell ref="O43:P43"/>
     <mergeCell ref="Q43:S43"/>
-    <mergeCell ref="W43:X43"/>
     <mergeCell ref="AH43:AI43"/>
     <mergeCell ref="O44:P44"/>
     <mergeCell ref="Q44:S44"/>
@@ -7259,22 +7393,28 @@
     <mergeCell ref="AH46:AI46"/>
     <mergeCell ref="O47:P47"/>
     <mergeCell ref="Q47:S47"/>
+    <mergeCell ref="W47:X47"/>
     <mergeCell ref="AH47:AI47"/>
     <mergeCell ref="O48:P48"/>
     <mergeCell ref="Q48:S48"/>
+    <mergeCell ref="W48:X48"/>
     <mergeCell ref="AH48:AI48"/>
     <mergeCell ref="AT48:AY48"/>
     <mergeCell ref="O49:P49"/>
     <mergeCell ref="Q49:S49"/>
+    <mergeCell ref="W49:X49"/>
     <mergeCell ref="AH49:AI49"/>
     <mergeCell ref="O50:P50"/>
     <mergeCell ref="Q50:S50"/>
+    <mergeCell ref="W50:X50"/>
     <mergeCell ref="AH50:AI50"/>
     <mergeCell ref="O51:P51"/>
     <mergeCell ref="Q51:S51"/>
+    <mergeCell ref="W51:X51"/>
     <mergeCell ref="AH51:AI51"/>
     <mergeCell ref="O52:P52"/>
     <mergeCell ref="Q52:S52"/>
+    <mergeCell ref="W52:X52"/>
     <mergeCell ref="AH52:AI52"/>
     <mergeCell ref="O53:P53"/>
     <mergeCell ref="Q53:S53"/>
@@ -7284,7 +7424,7 @@
     <mergeCell ref="AH54:AI54"/>
     <mergeCell ref="O55:P55"/>
     <mergeCell ref="Q55:S55"/>
-    <mergeCell ref="W55:AB55"/>
+    <mergeCell ref="W55:AC55"/>
     <mergeCell ref="AH55:AI55"/>
     <mergeCell ref="B56:E56"/>
     <mergeCell ref="O56:P56"/>
@@ -7322,7 +7462,6 @@
     <mergeCell ref="H62:I62"/>
     <mergeCell ref="O62:P62"/>
     <mergeCell ref="Q62:S62"/>
-    <mergeCell ref="W62:AB62"/>
     <mergeCell ref="AU62:AV62"/>
     <mergeCell ref="B63:C63"/>
     <mergeCell ref="H63:I63"/>
@@ -7333,6 +7472,7 @@
     <mergeCell ref="H64:I64"/>
     <mergeCell ref="O64:P64"/>
     <mergeCell ref="Q64:S64"/>
+    <mergeCell ref="W64:AB64"/>
     <mergeCell ref="AG64:AK64"/>
     <mergeCell ref="AU64:AV64"/>
     <mergeCell ref="B65:C65"/>
@@ -7357,12 +7497,12 @@
     <mergeCell ref="Q68:S68"/>
     <mergeCell ref="B69:C69"/>
     <mergeCell ref="H69:I69"/>
-    <mergeCell ref="W69:AB69"/>
     <mergeCell ref="B70:C70"/>
     <mergeCell ref="H70:I70"/>
     <mergeCell ref="AG70:AL70"/>
     <mergeCell ref="B71:C71"/>
     <mergeCell ref="H71:I71"/>
+    <mergeCell ref="W71:AB71"/>
     <mergeCell ref="H72:I72"/>
     <mergeCell ref="B73:E73"/>
     <mergeCell ref="H73:I73"/>
@@ -7372,6 +7512,7 @@
     <mergeCell ref="AG76:AM76"/>
     <mergeCell ref="B77:C77"/>
     <mergeCell ref="B78:C78"/>
+    <mergeCell ref="W78:AB78"/>
     <mergeCell ref="B79:C79"/>
     <mergeCell ref="B80:C80"/>
     <mergeCell ref="AG82:AK82"/>
@@ -7397,7 +7538,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="A29" zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -7408,675 +7549,659 @@
   </cols>
   <sheetData>
     <row r="3" ht="14.25">
-      <c r="D3" s="32" t="s">
-        <v>250</v>
-      </c>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
+      <c r="D3" s="34" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" ht="14.25"/>
     <row r="5" ht="14.25"/>
     <row r="6" ht="14.25">
       <c r="C6" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>252</v>
-      </c>
-      <c r="E6" s="32"/>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
+        <v>265</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
       <c r="M6" s="6" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="N6" s="6" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" ht="14.25">
       <c r="C7" s="11">
         <v>1</v>
       </c>
-      <c r="D7" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
+      <c r="D7" s="35" t="s">
+        <v>269</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38"/>
     </row>
     <row r="8" ht="14.25">
       <c r="C8" s="11">
         <v>2</v>
       </c>
-      <c r="D8" s="33" t="s">
-        <v>256</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="36"/>
-      <c r="N8" s="36"/>
+      <c r="D8" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="37"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="38"/>
     </row>
     <row r="9" ht="14.25">
       <c r="C9" s="11">
         <v>3</v>
       </c>
-      <c r="D9" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="36"/>
-      <c r="N9" s="36"/>
+      <c r="D9" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="38"/>
+      <c r="N9" s="38"/>
     </row>
     <row r="10" ht="14.25">
       <c r="C10" s="11">
         <v>4</v>
       </c>
-      <c r="D10" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="35"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="36"/>
+      <c r="D10" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="38"/>
     </row>
     <row r="11" ht="14.25">
       <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="35"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="36"/>
+      <c r="D11" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="E11" s="36"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="38"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" ht="14.25">
       <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="33" t="s">
-        <v>231</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34"/>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
-      <c r="L12" s="35"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="36"/>
+      <c r="D12" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="37"/>
+      <c r="M12" s="38"/>
+      <c r="N12" s="38"/>
     </row>
     <row r="13" ht="14.25">
       <c r="C13" s="11">
         <v>7</v>
       </c>
-      <c r="D13" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
+      <c r="D13" s="35" t="s">
+        <v>256</v>
+      </c>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="38"/>
     </row>
     <row r="14" ht="14.25">
       <c r="C14" s="11">
         <v>8</v>
       </c>
-      <c r="D14" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34"/>
-      <c r="K14" s="34"/>
-      <c r="L14" s="35"/>
-      <c r="M14" s="36"/>
-      <c r="N14" s="36"/>
+      <c r="D14" s="35" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="37"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="38"/>
     </row>
     <row r="15" ht="14.25">
       <c r="C15" s="11">
         <v>9</v>
       </c>
-      <c r="D15" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34"/>
-      <c r="K15" s="34"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="36"/>
+      <c r="D15" s="35" t="s">
+        <v>263</v>
+      </c>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
     </row>
     <row r="16" ht="14.25">
       <c r="C16" s="11">
         <v>10</v>
       </c>
-      <c r="D16" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="36"/>
-      <c r="N16" s="36"/>
+      <c r="D16" s="35" t="s">
+        <v>270</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="37"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
     </row>
     <row r="17" ht="14.25">
       <c r="C17" s="11">
         <v>11</v>
       </c>
-      <c r="D17" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34"/>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="36"/>
-      <c r="N17" s="36"/>
+      <c r="D17" s="35" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+      <c r="K17" s="36"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
     </row>
     <row r="18" ht="14.25">
       <c r="C18" s="11">
         <v>12</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>258</v>
-      </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="34"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
-      <c r="N18" s="36"/>
+      <c r="D18" s="35" t="s">
+        <v>272</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="37"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
     </row>
     <row r="19" ht="14.25">
       <c r="C19" s="11">
         <v>13</v>
       </c>
-      <c r="D19" s="33" t="s">
-        <v>259</v>
-      </c>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
+      <c r="D19" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="36"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="J19" s="36"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
     </row>
     <row r="20" ht="14.25">
       <c r="C20" s="11">
         <v>14</v>
       </c>
-      <c r="D20" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="36"/>
-      <c r="N20" s="36"/>
+      <c r="D20" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="37"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
     </row>
     <row r="21" ht="14.25">
       <c r="C21" s="11">
         <v>15</v>
       </c>
-      <c r="D21" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="E21" s="34"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="36"/>
+      <c r="D21" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="36"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="J21" s="36"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
     </row>
     <row r="22" ht="14.25">
       <c r="C22" s="11">
         <v>16</v>
       </c>
-      <c r="D22" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="E22" s="34"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="36"/>
-      <c r="N22" s="36"/>
+      <c r="D22" s="39" t="s">
+        <v>274</v>
+      </c>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="37"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
     </row>
     <row r="23" ht="14.25">
       <c r="C23" s="11">
         <v>17</v>
       </c>
-      <c r="D23" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="34"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="36"/>
-      <c r="N23" s="36"/>
+      <c r="D23" s="39" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="J23" s="36"/>
+      <c r="K23" s="36"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
     </row>
     <row r="24" ht="14.25">
       <c r="C24" s="11">
         <v>18</v>
       </c>
-      <c r="D24" s="33" t="s">
-        <v>138</v>
-      </c>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="36"/>
-      <c r="N24" s="36"/>
+      <c r="D24" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="37"/>
+      <c r="M24" s="38"/>
+      <c r="N24" s="38"/>
     </row>
     <row r="25" ht="14.25">
       <c r="C25" s="11">
         <v>19</v>
       </c>
-      <c r="D25" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="E25" s="34"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34"/>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="36"/>
-      <c r="N25" s="36"/>
+      <c r="D25" s="35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="38"/>
+      <c r="N25" s="38"/>
     </row>
     <row r="26" ht="14.25">
       <c r="C26" s="11">
         <v>20</v>
       </c>
-      <c r="D26" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="34"/>
-      <c r="I26" s="34"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="34"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="36"/>
-      <c r="N26" s="36"/>
+      <c r="D26" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="37"/>
+      <c r="M26" s="38"/>
+      <c r="N26" s="38"/>
     </row>
     <row r="27" ht="14.25">
       <c r="C27" s="11">
         <v>21</v>
       </c>
-      <c r="D27" s="33" t="s">
-        <v>213</v>
-      </c>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="34"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="36"/>
-      <c r="N27" s="36"/>
+      <c r="D27" s="35" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="36"/>
+      <c r="I27" s="36"/>
+      <c r="J27" s="36"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="38"/>
+      <c r="N27" s="38"/>
     </row>
     <row r="28" ht="14.25">
       <c r="C28" s="11">
         <v>22</v>
       </c>
-      <c r="D28" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="36"/>
-      <c r="N28" s="36"/>
+      <c r="D28" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="36"/>
+      <c r="I28" s="36"/>
+      <c r="J28" s="36"/>
+      <c r="K28" s="36"/>
+      <c r="L28" s="37"/>
+      <c r="M28" s="38"/>
+      <c r="N28" s="38"/>
     </row>
     <row r="29" ht="14.25">
       <c r="C29" s="11">
         <v>23</v>
       </c>
-      <c r="D29" s="33" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="34"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="36"/>
-      <c r="N29" s="36"/>
+      <c r="D29" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="36"/>
+      <c r="J29" s="36"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="37"/>
+      <c r="M29" s="38"/>
+      <c r="N29" s="38"/>
     </row>
     <row r="30" ht="14.25">
       <c r="C30" s="11">
         <v>24</v>
       </c>
-      <c r="D30" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="36"/>
-      <c r="N30" s="36"/>
+      <c r="D30" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="36"/>
+      <c r="J30" s="36"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="38"/>
+      <c r="N30" s="38"/>
     </row>
     <row r="31" ht="14.25">
       <c r="C31" s="11">
         <v>25</v>
       </c>
-      <c r="D31" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="E31" s="34"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="36"/>
-      <c r="N31" s="36"/>
+      <c r="D31" s="35" t="s">
+        <v>278</v>
+      </c>
+      <c r="E31" s="36"/>
+      <c r="F31" s="36"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="36"/>
+      <c r="I31" s="36"/>
+      <c r="J31" s="36"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="37"/>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
     </row>
     <row r="32" ht="14.25">
       <c r="C32" s="11">
         <v>26</v>
       </c>
-      <c r="D32" s="33" t="s">
-        <v>263</v>
-      </c>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="36"/>
-      <c r="N32" s="36"/>
+      <c r="D32" s="35" t="s">
+        <v>279</v>
+      </c>
+      <c r="E32" s="36"/>
+      <c r="F32" s="36"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="36"/>
+      <c r="I32" s="36"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="36"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="38"/>
     </row>
     <row r="33" ht="14.25">
       <c r="C33" s="11">
         <v>27</v>
       </c>
-      <c r="D33" s="33" t="s">
-        <v>264</v>
-      </c>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="34"/>
-      <c r="H33" s="34"/>
-      <c r="I33" s="34"/>
-      <c r="J33" s="34"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="36"/>
-      <c r="N33" s="36"/>
+      <c r="D33" s="35" t="s">
+        <v>221</v>
+      </c>
+      <c r="E33" s="36"/>
+      <c r="F33" s="36"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="36"/>
+      <c r="I33" s="36"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="38"/>
     </row>
     <row r="34" ht="14.25">
       <c r="C34" s="11">
         <v>28</v>
       </c>
-      <c r="D34" s="33" t="s">
-        <v>214</v>
-      </c>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="34"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="36"/>
-      <c r="N34" s="36"/>
+      <c r="D34" s="35" t="s">
+        <v>233</v>
+      </c>
+      <c r="E34" s="36"/>
+      <c r="F34" s="36"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="36"/>
+      <c r="I34" s="36"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="36"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
     </row>
     <row r="35" ht="14.25">
       <c r="C35" s="11">
         <v>29</v>
       </c>
-      <c r="D35" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="34"/>
-      <c r="H35" s="34"/>
-      <c r="I35" s="34"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="36"/>
-      <c r="N35" s="36"/>
+      <c r="D35" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="36"/>
+      <c r="I35" s="36"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="36"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
     </row>
     <row r="36" ht="14.25">
       <c r="C36" s="11">
         <v>30</v>
       </c>
-      <c r="D36" s="33" t="s">
-        <v>232</v>
-      </c>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="34"/>
-      <c r="K36" s="34"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="36"/>
-      <c r="N36" s="36"/>
+      <c r="D36" s="35" t="s">
+        <v>247</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="36" t="s">
+        <v>280</v>
+      </c>
+      <c r="I36" s="36"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
     </row>
     <row r="37" ht="14.25">
       <c r="C37" s="11">
         <v>31</v>
       </c>
-      <c r="D37" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34" t="s">
-        <v>265</v>
-      </c>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="36"/>
-      <c r="N37" s="36"/>
+      <c r="D37" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="36"/>
+      <c r="I37" s="36"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="36"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="38"/>
     </row>
     <row r="38" ht="14.25">
       <c r="C38" s="11">
         <v>32</v>
       </c>
-      <c r="D38" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="34"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="36"/>
-      <c r="N38" s="36"/>
+      <c r="D38" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="36"/>
+      <c r="I38" s="36"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="36"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="38"/>
     </row>
     <row r="39" ht="14.25">
       <c r="C39" s="11">
         <v>33</v>
       </c>
-      <c r="D39" s="33" t="s">
-        <v>51</v>
-      </c>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="34"/>
-      <c r="K39" s="34"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="36"/>
-      <c r="N39" s="36"/>
+      <c r="D39" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="36"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="36"/>
+      <c r="I39" s="36"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="38"/>
     </row>
     <row r="40" ht="14.25">
       <c r="C40" s="11">
         <v>34</v>
       </c>
-      <c r="D40" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" s="34"/>
-      <c r="K40" s="34"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="36"/>
-      <c r="N40" s="36"/>
+      <c r="D40" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="E40" s="36"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="36"/>
+      <c r="I40" s="36" t="s">
+        <v>281</v>
+      </c>
+      <c r="J40" s="36"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="38"/>
     </row>
     <row r="41" ht="14.25">
-      <c r="C41" s="11">
-        <v>35</v>
-      </c>
-      <c r="D41" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34" t="s">
-        <v>266</v>
-      </c>
-      <c r="J41" s="34"/>
-      <c r="K41" s="34"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="36"/>
-      <c r="N41" s="36"/>
       <c r="S41" t="s">
-        <v>266</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" ht="14.25"/>
   </sheetData>
-  <mergeCells count="37">
+  <mergeCells count="36">
     <mergeCell ref="D3:J3"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:L7"/>
@@ -8113,7 +8238,6 @@
     <mergeCell ref="D38:L38"/>
     <mergeCell ref="D39:L39"/>
     <mergeCell ref="D40:L40"/>
-    <mergeCell ref="D41:L41"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
